--- a/config_debug/fish_map_config.xlsx
+++ b/config_debug/fish_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -518,10 +518,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每次打中后会掉鲸币，同时会生气变胖，最多可以生气2次，最后击杀可获得大量鲸币奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>bk_icon_ppy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -634,6 +630,10 @@
   </si>
   <si>
     <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次打中后会掉金币，同时会生气变胖，最多可以生气2次，最后击杀可获得大量金币奖励</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2082,7 +2082,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>20</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>51</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>52</v>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>130</v>
@@ -2964,7 +2964,7 @@
         <v>160</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2983,17 +2983,17 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3019,19 +3019,19 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="H31" s="1">
         <v>0.3</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3057,17 +3057,17 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="H32" s="8">
         <v>0.8</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3093,17 +3093,17 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H33" s="8">
         <v>0.8</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3129,17 +3129,17 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="8">
         <v>0.8</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3165,17 +3165,17 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H35" s="8">
         <v>0.8</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>

--- a/config_debug/fish_map_config.xlsx
+++ b/config_debug/fish_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -518,6 +518,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>每次打中后会掉鲸币，同时会生气变胖，最多可以生气2次，最后击杀可获得大量鲸币奖励</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>bk_icon_ppy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -630,10 +634,6 @@
   </si>
   <si>
     <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次打中后会掉金币，同时会生气变胖，最多可以生气2次，最后击杀可获得大量金币奖励</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2082,7 +2082,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>20</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>51</v>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>52</v>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>130</v>
@@ -2964,7 +2964,7 @@
         <v>160</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2983,17 +2983,17 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3019,19 +3019,19 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H31" s="1">
         <v>0.3</v>
       </c>
       <c r="I31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3057,17 +3057,17 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H32" s="8">
         <v>0.8</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3093,17 +3093,17 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H33" s="8">
         <v>0.8</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3129,17 +3129,17 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H34" s="8">
         <v>0.8</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3165,17 +3165,17 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H35" s="8">
         <v>0.8</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
